--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_15.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5283674.776931893</v>
+        <v>5283674.776931894</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.81406643968054</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>220.8837963815379</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>126.358590200387</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1230,10 +1230,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>62.88143347497287</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1373,64 +1373,64 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>63.14223173826442</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -1749,10 +1749,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="16">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1886,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>106.7776990973757</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,67 +2087,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>137.6509866896794</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,73 +2315,73 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.67481985855918</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>103.4392008178271</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2719,46 +2719,46 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>108.3856149073917</v>
       </c>
       <c r="U30" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>190.3453970742846</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>66.11861112998577</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>50.84150945985687</v>
       </c>
       <c r="W33" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,58 +3193,58 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.19305615617947</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.1427070647978</v>
+        <v>89.98138655216532</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,64 +3433,64 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.014288877659</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.05241763862461</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>90.91642501047011</v>
       </c>
     </row>
     <row r="40">
@@ -3676,46 +3676,46 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.948886300959</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>29.1427070647978</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>155.5825568932142</v>
       </c>
     </row>
     <row r="43">
@@ -3895,64 +3895,64 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>129.3969870666632</v>
       </c>
       <c r="F45" t="n">
-        <v>106.988878104098</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4077,7 +4077,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>546.1553495854092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>546.1553495854092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4823,28 +4823,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
         <v>19.28114311021272</v>
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>334.8977035896875</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>196.166878172303</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>82.7977425798823</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5005,7 +5005,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
         <v>725.4530095217538</v>
@@ -5145,7 +5145,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
         <v>726.1056462496665</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
         <v>262.7299197543128</v>
@@ -5309,19 +5309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>498.6361606388412</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>263.4840524070985</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5455,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="W17" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="W17" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="19">
@@ -5704,16 +5704,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5947,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5987,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>306.4061746842191</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>167.6753492668346</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>54.30621367441391</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6236,40 +6236,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>411.5873492138888</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>237.1343199327618</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>237.1343199327618</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>237.1343199327618</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>619.4388494194217</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>411.5873492138888</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>411.5873492138888</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>854.5767364122607</v>
       </c>
       <c r="U30" t="n">
-        <v>914.2479596093278</v>
+        <v>854.5767364122607</v>
       </c>
       <c r="V30" t="n">
-        <v>679.0958513775852</v>
+        <v>619.424628180518</v>
       </c>
       <c r="W30" t="n">
-        <v>435.6470747334852</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="31">
@@ -6649,7 +6649,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.5167634983089</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C32" t="n">
-        <v>518.2486856454962</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D32" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729607</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6710,40 +6710,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P32" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424089</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>418.6697947459187</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>234.8108274061909</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950733</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>897.2706796217615</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>897.2706796217615</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>662.1185713900187</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W33" t="n">
-        <v>418.6697947459187</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X33" t="n">
-        <v>418.6697947459187</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>418.6697947459187</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.0360370837869</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>274.0360370837869</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>274.0360370837869</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>274.0360370837869</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>274.0360370837869</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58726043968693</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968693</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6944,43 +6944,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N35" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O35" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P35" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278869</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>517.4848137278869</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>274.0360370837869</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>274.0360370837869</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>274.0360370837869</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0360370837869</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299843</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569325</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950733</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>712.0191193839557</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>934.6200776674059</v>
+        <v>873.1668660640046</v>
       </c>
       <c r="U36" t="n">
-        <v>706.396459403795</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="V36" t="n">
-        <v>471.2443511720523</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W36" t="n">
-        <v>227.7955745279523</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X36" t="n">
-        <v>227.7955745279523</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299843</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.6274730425127</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>749.6274730425127</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>749.6274730425127</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7214,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.6274730425127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.6274730425127</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L39" t="n">
+        <v>178.8501590306595</v>
+      </c>
+      <c r="M39" t="n">
+        <v>417.4543050195419</v>
+      </c>
+      <c r="N39" t="n">
+        <v>656.0584510084244</v>
+      </c>
+      <c r="O39" t="n">
+        <v>894.6625969973069</v>
+      </c>
+      <c r="P39" t="n">
+        <v>894.6625969973069</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="R39" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="S39" t="n">
+        <v>790.6398109613051</v>
+      </c>
+      <c r="T39" t="n">
+        <v>790.6398109613051</v>
+      </c>
+      <c r="U39" t="n">
+        <v>562.4161926976942</v>
+      </c>
+      <c r="V39" t="n">
+        <v>562.4161926976942</v>
+      </c>
+      <c r="W39" t="n">
+        <v>318.9674160535941</v>
+      </c>
+      <c r="X39" t="n">
+        <v>111.1159158480613</v>
+      </c>
+      <c r="Y39" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="L39" t="n">
-        <v>249.2442489785619</v>
-      </c>
-      <c r="M39" t="n">
-        <v>487.8483949674443</v>
-      </c>
-      <c r="N39" t="n">
-        <v>487.8483949674443</v>
-      </c>
-      <c r="O39" t="n">
-        <v>712.0191193839557</v>
-      </c>
-      <c r="P39" t="n">
-        <v>894.6625969973067</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="R39" t="n">
-        <v>934.7112791079849</v>
-      </c>
-      <c r="S39" t="n">
-        <v>934.7112791079849</v>
-      </c>
-      <c r="T39" t="n">
-        <v>934.7112791079849</v>
-      </c>
-      <c r="U39" t="n">
-        <v>706.487660844374</v>
-      </c>
-      <c r="V39" t="n">
-        <v>471.3355526126313</v>
-      </c>
-      <c r="W39" t="n">
-        <v>227.8867759685313</v>
-      </c>
-      <c r="X39" t="n">
-        <v>20.03527576299843</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>475.3318284112884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7421,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748834</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>475.3318284112884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>475.3318284112884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>475.3318284112884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>475.3318284112884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>475.3318284112884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.3318284112884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L42" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="M42" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N42" t="n">
+        <v>613.2059550252818</v>
+      </c>
+      <c r="O42" t="n">
+        <v>851.8101010141643</v>
+      </c>
+      <c r="P42" t="n">
+        <v>894.6625969973069</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="R42" t="n">
+        <v>862.8876260635219</v>
+      </c>
+      <c r="S42" t="n">
+        <v>862.8876260635219</v>
+      </c>
+      <c r="T42" t="n">
+        <v>862.8876260635219</v>
+      </c>
+      <c r="U42" t="n">
+        <v>862.8876260635219</v>
+      </c>
+      <c r="V42" t="n">
+        <v>627.7355178317791</v>
+      </c>
+      <c r="W42" t="n">
+        <v>384.2867411876791</v>
+      </c>
+      <c r="X42" t="n">
+        <v>176.4352409821462</v>
+      </c>
+      <c r="Y42" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="L42" t="n">
-        <v>249.2442489785619</v>
-      </c>
-      <c r="M42" t="n">
-        <v>473.4149733950733</v>
-      </c>
-      <c r="N42" t="n">
-        <v>473.4149733950733</v>
-      </c>
-      <c r="O42" t="n">
-        <v>712.0191193839557</v>
-      </c>
-      <c r="P42" t="n">
-        <v>894.6625969973067</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="R42" t="n">
-        <v>964.057155510636</v>
-      </c>
-      <c r="S42" t="n">
-        <v>934.6200776674059</v>
-      </c>
-      <c r="T42" t="n">
-        <v>934.6200776674059</v>
-      </c>
-      <c r="U42" t="n">
-        <v>706.396459403795</v>
-      </c>
-      <c r="V42" t="n">
-        <v>471.2443511720523</v>
-      </c>
-      <c r="W42" t="n">
-        <v>227.7955745279523</v>
-      </c>
-      <c r="X42" t="n">
-        <v>227.7955745279523</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="43">
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7649,49 +7649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>749.6274730425127</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984127</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543127</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>619.4388494194217</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="C45" t="n">
-        <v>619.4388494194217</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="D45" t="n">
-        <v>470.5044397581704</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="E45" t="n">
-        <v>470.5044397581704</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328711</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217535</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.057155510636</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635217</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635217</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194217</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194217</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y45" t="n">
-        <v>619.4388494194217</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9021,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493022</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979181</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>222.4246658592331</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.0313196126378</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497677</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,13 +22604,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>120.8310140157204</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22781,31 +22781,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>46.34990878792877</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,19 +22914,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23063,31 +23063,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23100,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23118,10 +23118,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.5151993764422</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,7 +23148,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>119.8056861312425</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23160,7 +23160,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23203,7 +23203,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23261,16 +23261,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,13 +23312,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23385,10 +23385,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23549,7 +23549,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,10 +23622,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>137.0224969565572</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="16">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,7 +23744,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23774,25 +23774,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,19 +23808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>59.75548455249167</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23862,22 +23862,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>19.99409376572157</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>54.7218129928559</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>41.63001157555674</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,31 +24677,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686752</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,10 +24734,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>61.00025583355162</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,7 +24762,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,10 +24810,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>91.77911378742989</v>
       </c>
       <c r="U30" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>174.9274946967229</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>134.0461175648358</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>181.9590776895684</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,16 +25163,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>199.2828334142264</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,22 +25196,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,16 +25284,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>171.0220216300238</v>
+        <v>110.1833421426563</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946028</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.4457150350268</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>71.10541651401851</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>114.7662707668343</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25673,13 +25673,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>98.14696326317237</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>142.54046403904</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>50.1001388840902</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,13 +25947,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>28.24809338873771</v>
       </c>
       <c r="F45" t="n">
-        <v>38.08033428928586</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25965,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611646</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="15">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
         <v>179.5324977039669</v>
@@ -26448,7 +26448,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
         <v>179.5324977039669</v>
@@ -26457,7 +26457,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4609.728394514081</v>
+        <v>-4609.728394514052</v>
       </c>
       <c r="C6" t="n">
+        <v>76159.70313703363</v>
+      </c>
+      <c r="D6" t="n">
         <v>76159.70313703368</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76159.70313703365</v>
       </c>
       <c r="E6" t="n">
         <v>109787.3031370336</v>
       </c>
       <c r="F6" t="n">
+        <v>109787.3031370337</v>
+      </c>
+      <c r="G6" t="n">
         <v>109787.3031370336</v>
-      </c>
-      <c r="G6" t="n">
-        <v>109787.3031370337</v>
       </c>
       <c r="H6" t="n">
         <v>109787.3031370337</v>
       </c>
       <c r="I6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="J6" t="n">
-        <v>46727.36053792742</v>
+        <v>46727.36053792744</v>
       </c>
       <c r="K6" t="n">
         <v>109787.3031370337</v>
       </c>
       <c r="L6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="M6" t="n">
         <v>109787.3031370336</v>
@@ -26558,7 +26558,7 @@
         <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
-        <v>109787.3031370337</v>
+        <v>109787.3031370336</v>
       </c>
       <c r="P6" t="n">
         <v>109787.3031370336</v>
@@ -26811,25 +26811,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M15" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35741,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>240.0046611659689</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>91.08295377589981</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655595</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,19 +37388,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>91.08295377589984</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681934</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681934</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.055561526184</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>727085.3022933754</v>
+        <v>653006.5266837372</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376208.962797961</v>
+        <v>221790.8019955679</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12665478.15985334</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7410026.6682005</v>
+        <v>8218487.197793873</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>212.2853856434421</v>
+        <v>230.2038249569696</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>263.2420339516669</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>263.2420339516669</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8635835046281</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>306.8926904458839</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2940166796957</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>111.757373777286</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>87.69233988828962</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>40.51412635613477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.30958074936521</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>57.58140110777157</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X15" t="n">
-        <v>199.2144475190335</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.632598604764548</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022107</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>150.3227969010357</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>276.1565137023555</v>
+        <v>317.0837352438119</v>
       </c>
       <c r="E17" t="n">
-        <v>276.1565137023555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>243.2386572690346</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>175.7569470849743</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.78463339148466</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>104.8405888295619</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>192.7754356881601</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>86.88462298447439</v>
       </c>
       <c r="U22" t="n">
-        <v>83.5983059739478</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>253.8139140873652</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>154.6655513636789</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>44.5846742029478</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>156.5536644568857</v>
       </c>
       <c r="Y26" t="n">
-        <v>222.7538424544965</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2639,10 +2639,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.6993815150876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>329.6586928752346</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.72006486743059</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>201.3302879382934</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>42.7814694423914</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>296.4456281581539</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.0978190620145</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>208.9978294690248</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>237.6596569995508</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>50.07167817132287</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.75305087075564</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>235.4745188564435</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>90.58715795082063</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>85.42957511242955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.5927732924349</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>249.1782555802293</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>47.40419526769224</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>11.75685339834053</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.00803688215797</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>4.440065804380572</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4309,25 +4309,25 @@
         <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W2" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X2" t="n">
         <v>710.516763498309</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>467.067986854209</v>
-      </c>
-      <c r="W2" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="X2" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>122.6530896684844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.6530896684844</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4670,25 +4670,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
         <v>20.03527576299844</v>
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>495.2590358724639</v>
       </c>
       <c r="E8" t="n">
-        <v>477.1596022224361</v>
+        <v>251.8102592283639</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>251.8102592283639</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165639</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>495.2590358724639</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.0815197256143</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>413.6284904444873</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>264.694080783236</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>105.4566257777805</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456824</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1052.968135806668</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C11" t="n">
-        <v>1052.968135806668</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D11" t="n">
-        <v>1052.968135806668</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E11" t="n">
-        <v>787.0670914110444</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>521.1660470154213</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>255.2650026197982</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>135.7250809573683</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>1052.968135806668</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>1052.968135806668</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>1052.968135806668</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="W11" t="n">
-        <v>1052.968135806668</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="X11" t="n">
-        <v>1052.968135806668</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y11" t="n">
-        <v>1052.968135806668</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>843.8294388309079</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>669.3764095497809</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>520.4419998885296</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>361.204544883074</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>361.204544883074</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>222.5237199540885</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6374838154158</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>24.95018035683217</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>24.95018035683217</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>24.95018035683217</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>285.5597939689824</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>542.8187885312773</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>791.5722026152395</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>983.5735772933382</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>1052.968135806668</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>1052.968135806668</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>1052.968135806668</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
-        <v>1052.968135806668</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1052.968135806668</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1052.968135806668</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1052.968135806668</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1012.044775850976</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>54.48163939360305</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>100.1098670955241</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>182.5089274706538</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W13" t="n">
-        <v>182.5089274706538</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.0988920136273</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C14" t="n">
-        <v>291.0988920136273</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>291.0988920136273</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>291.0988920136273</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>291.0988920136273</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>291.0988920136273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>135.7250809573684</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>978.9180542416522</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>769.9161767669927</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>544.9759138509326</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>291.0988920136273</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V14" t="n">
-        <v>291.0988920136273</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W14" t="n">
-        <v>291.0988920136273</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X14" t="n">
-        <v>291.0988920136273</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y14" t="n">
-        <v>291.0988920136273</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>475.7657853559551</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>475.7657853559551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>326.8313756947039</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>167.5939206892484</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>21.05936271613335</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>21.05936271613335</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>21.05936271613335</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>154.3302328992136</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>394.9337607940762</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>552.176685596025</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>552.176685596025</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>800.9300996799873</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>983.5735772933382</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>1052.968135806668</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>1052.968135806668</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>1052.968135806668</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
-        <v>1052.968135806668</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1052.968135806668</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1052.968135806668</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>851.7414211409771</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>643.9811223760232</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>176.8194339304876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>54.48163939360305</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>100.1098670955241</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>182.5089274706538</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>182.5089274706538</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>182.5089274706538</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U16" t="n">
-        <v>182.5089274706538</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.5089274706538</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1104.626054809422</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1104.626054809422</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>825.6800813726992</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>546.7341079359765</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>267.7881344992537</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618846</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438684</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901064</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.626054809422</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.09252109618844</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09252109618844</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>22.09252109618844</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618844</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618844</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>22.09252109618844</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>252.0556269645376</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>525.4505755298695</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>641.2451212288496</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>907.7419348121334</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.626054809422</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q18" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>1104.626054809422</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>1104.626054809422</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>1104.626054809422</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
-        <v>927.0937850266196</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>691.9416767948769</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>437.7043200666752</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>229.8528198611424</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.09252109618844</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.776758756894</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160687</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>22.776758756894</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>22.776758756894</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>22.776758756894</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>22.776758756894</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>22.776758756894</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>22.776758756894</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>22.776758756894</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.776758756894</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1394.624369323446</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C20" t="n">
-        <v>1394.624369323446</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.358670716696</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>1315.986999352107</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>905.0010945624999</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>487.0372864606868</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>159.8425664966896</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5770,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W20" t="n">
-        <v>2171.363541363379</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X20" t="n">
-        <v>2171.363541363379</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y20" t="n">
-        <v>1781.224209387568</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5846,28 +5846,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5876,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2107.405821939171</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.963088632153</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>640.3667387675712</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1364.743608328862</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C23" t="n">
-        <v>995.7810913884507</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>637.5153927817003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>637.5153927817003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>637.5153927817003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.512263598976</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W23" t="n">
-        <v>1364.743608328862</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X23" t="n">
-        <v>1364.743608328862</v>
+        <v>1638.455051716319</v>
       </c>
       <c r="Y23" t="n">
-        <v>1364.743608328862</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>438.7118141694737</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>438.7118141694737</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>438.7118141694737</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220517</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.7118141694737</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1161.086123514381</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W26" t="n">
-        <v>1759.555763042629</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X26" t="n">
-        <v>1386.090004781549</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y26" t="n">
-        <v>1161.086123514381</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
         <v>505.8730812692495</v>
@@ -6302,46 +6302,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.1711973675267</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C29" t="n">
-        <v>412.208680427115</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6463,52 +6463,52 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1936.146930626914</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>1583.3782753568</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X29" t="n">
-        <v>1209.91251709572</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.771037431648</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>2204.611553462393</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>2204.611553462393</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>2204.611553462393</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>2204.611553462393</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1937.083492693021</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C32" t="n">
-        <v>1568.120975752609</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>2323.683332757143</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6803,19 +6803,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>519.9493689922781</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C34" t="n">
-        <v>519.9493689922781</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D34" t="n">
-        <v>369.8327295799424</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E34" t="n">
-        <v>369.8327295799424</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F34" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>519.9493689922781</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>519.9493689922781</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1199.13500546934</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
-        <v>830.1724885289282</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2646.571638319916</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2646.571638319916</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2646.571638319916</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2315.508750976346</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1962.740095706231</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1589.274337445152</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1199.13500546934</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6992,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>2459.296041668279</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>2204.611553462393</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W37" t="n">
-        <v>2204.611553462393</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X37" t="n">
-        <v>2204.611553462393</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.611553462393</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7204,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>2387.012244241982</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7256,46 +7256,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>2153.290992466904</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>2153.290992466904</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>920.3919303875161</v>
+        <v>1503.550419308994</v>
       </c>
       <c r="C41" t="n">
-        <v>920.3919303875161</v>
+        <v>1134.587902368582</v>
       </c>
       <c r="D41" t="n">
-        <v>920.3919303875161</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,16 +7414,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7450,13 +7450,13 @@
         <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>1540.921096014692</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X41" t="n">
-        <v>1167.455337753612</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.455337753612</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.05843098304948</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2045.420119349963</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,31 +7727,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>113.6371076753678</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064342</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D46" t="n">
-        <v>578.0123447940985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>430.0992512117053</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036445</v>
@@ -7848,10 +7848,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497677</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3760678736852</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1992823482776</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>300.965271095704</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>418.2905476243738</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>248.3058996580606</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013777</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22804,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>185.0989125581654</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23099,19 +23099,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,28 +23260,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>118.6883361205949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6340117900446</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>151.9681874521645</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>106.6637379862502</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
-        <v>4.09710005285207</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>20.85956802425096</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>165.1685694211696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>8.114410708933576</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>90.42516245839141</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.68702246598914</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>175.4274210366964</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>75.28528753921148</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>70.74802201510488</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>312.1496995706975</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>6.558537684443934</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23664,22 +23664,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.2256052425491</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839141</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.68702246598916</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>175.4274210366964</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>227.7682732010226</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>101.8148464227923</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>78.52652791832747</v>
+        <v>37.59930637687108</v>
       </c>
       <c r="E17" t="n">
-        <v>105.7738563699063</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>171.9232912582848</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0329468943008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>166.5694258145293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,19 +23904,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9278262653587</v>
+        <v>77.52516886756625</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>88.89425643449839</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>47.09072741529931</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>156.4655330292529</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.1504824736099</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6835682680299</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>159.9702559334298</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,13 +24256,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>215.0655493147902</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.7251280561031</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>213.1774362215833</v>
       </c>
       <c r="Y26" t="n">
-        <v>163.484096201557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646977</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.885271837007167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>35.61419889577297</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24730,25 +24730,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.517873788623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646977</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,7 +24858,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24894,10 +24894,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>50.80735538553461</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>339.9523722210891</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>58.2374134625291</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>18.93728639606974</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>9.586823883069997</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>117.0233846211322</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.3440346376487</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25213,10 +25213,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>94.49377022787219</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>50.80735538553427</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25444,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>258.6538107665924</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>300.8083635436241</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646987</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,7 +25569,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>96.68503059263372</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.1410683710457</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>105.5047860404537</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.8276855108791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.5261748045696</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.4841153190725</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>75.30176537689294</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>221.2695895846566</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>476685.414108744</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>476685.414108744</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>487250.0410405405</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433335</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>795169.6775433336</v>
+        <v>795169.6775433337</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>795169.6775433337</v>
+        <v>795169.6775433336</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>124620.5043984993</v>
       </c>
       <c r="E2" t="n">
-        <v>130005.1129387483</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="F2" t="n">
-        <v>130005.1129387483</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="G2" t="n">
-        <v>132886.3748292383</v>
+        <v>216864.4575118182</v>
       </c>
       <c r="H2" t="n">
         <v>216864.4575118182</v>
@@ -26340,7 +26340,7 @@
         <v>216864.4575118182</v>
       </c>
       <c r="K2" t="n">
-        <v>216864.4575118182</v>
+        <v>216864.4575118181</v>
       </c>
       <c r="L2" t="n">
         <v>216864.4575118182</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25125.73635942196</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12875.63425019409</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>369844.2053843286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5539.242983423047</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3107.882466482962</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>94107.76004020478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>196.6176664714449</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>196.6176664714449</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>206.5374179011836</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597035</v>
@@ -26475,25 +26475,25 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>16506.80740683336</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>16506.80740683336</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26502,7 +26502,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4609.728394514066</v>
+        <v>-16827.73901455453</v>
       </c>
       <c r="C6" t="n">
-        <v>76159.70313703368</v>
+        <v>63941.69251699321</v>
       </c>
       <c r="D6" t="n">
-        <v>76159.70313703368</v>
+        <v>63941.69251699319</v>
       </c>
       <c r="E6" t="n">
-        <v>88175.95150602155</v>
+        <v>-271794.7168394663</v>
       </c>
       <c r="F6" t="n">
-        <v>113301.6878654435</v>
+        <v>161051.4572035299</v>
       </c>
       <c r="G6" t="n">
-        <v>102250.4236443629</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="H6" t="n">
-        <v>-202724.3344349795</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="I6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035297</v>
       </c>
       <c r="J6" t="n">
-        <v>104059.9283502428</v>
+        <v>97991.51460442353</v>
       </c>
       <c r="K6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035297</v>
       </c>
       <c r="L6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="M6" t="n">
-        <v>161580.627965926</v>
+        <v>53078.09652947163</v>
       </c>
       <c r="N6" t="n">
-        <v>167119.870949349</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="O6" t="n">
-        <v>164011.988482866</v>
+        <v>161051.4572035298</v>
       </c>
       <c r="P6" t="n">
-        <v>73012.11090914423</v>
+        <v>161051.4572035299</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678963</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26776,7 +26776,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26795,25 +26795,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26822,7 +26822,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.01338268678963</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>12.00787803233572</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.22774507400783</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22774507400783</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>398.1307590522002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09251611130367682</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9474806248887805</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>3.566727381035004</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>7.852189301760448</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>11.76839629324509</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>14.59973623455499</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>16.24501962895176</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>16.50788103019333</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58792394841739</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>13.30393245060787</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544938</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>5.811515176679594</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>2.108210886332538</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4049892772318455</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.007401288904294144</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04950048351498146</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4780704592104789</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>1.704292963125458</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>4.67671015524656</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>9.452421277523083</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>3.073372125605605</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9194497705523963</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1995216857467892</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003256610757564571</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0414995425499485</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>0.368968660125906</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>1.248004425047543</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>2.934017658281359</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>4.821492307166743</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>6.169850171471436</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>6.505241928988744</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>6.350561815848033</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>5.865771705150905</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>5.019181037131951</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.475020785705234</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7232238460750113</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>3.566727381035002</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>14.59973623455499</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>1.704292963125458</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>2.934017658281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>5.42776745276012</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587038</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>0.616303794162698</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520189</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727679</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335885</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263571</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623704</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174389</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170847</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894685</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>9.89953440294882</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394052</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179687</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938414</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587926</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,13 +32566,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578334</v>
       </c>
       <c r="P21" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32788,10 +32788,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33736,7 +33736,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33906,7 +33906,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O38" t="n">
         <v>255.8615389119866</v>
@@ -33973,7 +33973,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33994,7 +33994,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34447,7 +34447,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>61.04368814949358</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194293</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.930118828988704</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>263.2420339516669</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>259.8575702649443</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>193.94078250313</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>33.75987543178758</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>2.297740302025439</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>115.8239578194293</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>134.6170405889699</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>243.0338665604673</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>158.8312371736857</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424828</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023555</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>116.9641875747273</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P18" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831902</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901185</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.29709682323572</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
